--- a/pred_ohlcv/54_21/2019-10-31 BHP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-31 BHP ohlcv.xlsx
@@ -12404,7 +12404,7 @@
         <v>1087533.54642732</v>
       </c>
       <c r="H462">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>1087533.54642732</v>
       </c>
       <c r="H463">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>1087533.54642732</v>
       </c>
       <c r="H464">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>1087544.64642732</v>
       </c>
       <c r="H465">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>1087544.64642732</v>
       </c>
       <c r="H466">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>1087544.64642732</v>
       </c>
       <c r="H467">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>1087544.64642732</v>
       </c>
       <c r="H468">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>1087544.64642732</v>
       </c>
       <c r="H469">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>1087544.64642732</v>
       </c>
       <c r="H470">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>1087544.64642732</v>
       </c>
       <c r="H471">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>1087544.64642732</v>
       </c>
       <c r="H472">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>1087547.64642732</v>
       </c>
       <c r="H473">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>1087530.84642732</v>
       </c>
       <c r="H474">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>1087542.34642732</v>
       </c>
       <c r="H475">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>1087542.34642732</v>
       </c>
       <c r="H476">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>1087542.34642732</v>
       </c>
       <c r="H477">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>1087542.34642732</v>
       </c>
       <c r="H478">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>1087542.57102732</v>
       </c>
       <c r="H479">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>1087517.37102732</v>
       </c>
       <c r="H480">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>1087517.37102732</v>
       </c>
       <c r="H481">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>1087517.37102732</v>
       </c>
       <c r="H482">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>1087511.47102732</v>
       </c>
       <c r="H483">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>1087511.47102732</v>
       </c>
       <c r="H484">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>800245.3675265101</v>
       </c>
       <c r="H713">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>801311.3675265101</v>
       </c>
       <c r="H714">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>802427.3675265101</v>
       </c>
       <c r="H715">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>803223.3675265101</v>
       </c>
       <c r="H716">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>803357.7879265101</v>
       </c>
       <c r="H717">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>803357.7879265101</v>
       </c>
       <c r="H718">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>804723.3879265101</v>
       </c>
       <c r="H719">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>805394.6905265101</v>
       </c>
       <c r="H721">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>805330.5905265101</v>
       </c>
       <c r="H722">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>805296.1905265101</v>
       </c>
       <c r="H723">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>805325.9905265102</v>
       </c>
       <c r="H724">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>805269.9039265101</v>
       </c>
       <c r="H725">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>805348.2173265101</v>
       </c>
       <c r="H726">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>805348.4970265101</v>
       </c>
       <c r="H727">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>805330.37842651</v>
       </c>
       <c r="H728">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>805930.37842651</v>
       </c>
       <c r="H729">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>805351.96492651</v>
       </c>
       <c r="H730">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>805381.76492651</v>
       </c>
       <c r="H731">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-31 BHP ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-31 BHP ohlcv.xlsx
@@ -990,7 +990,7 @@
         <v>135524.7</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -12404,7 +12404,7 @@
         <v>1087533.54642732</v>
       </c>
       <c r="H462">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="463" spans="1:8">
@@ -12430,7 +12430,7 @@
         <v>1087533.54642732</v>
       </c>
       <c r="H463">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="464" spans="1:8">
@@ -12456,7 +12456,7 @@
         <v>1087533.54642732</v>
       </c>
       <c r="H464">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="465" spans="1:8">
@@ -12482,7 +12482,7 @@
         <v>1087544.64642732</v>
       </c>
       <c r="H465">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="466" spans="1:8">
@@ -12508,7 +12508,7 @@
         <v>1087544.64642732</v>
       </c>
       <c r="H466">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="467" spans="1:8">
@@ -12534,7 +12534,7 @@
         <v>1087544.64642732</v>
       </c>
       <c r="H467">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="468" spans="1:8">
@@ -12560,7 +12560,7 @@
         <v>1087544.64642732</v>
       </c>
       <c r="H468">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="469" spans="1:8">
@@ -12586,7 +12586,7 @@
         <v>1087544.64642732</v>
       </c>
       <c r="H469">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="470" spans="1:8">
@@ -12612,7 +12612,7 @@
         <v>1087544.64642732</v>
       </c>
       <c r="H470">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="471" spans="1:8">
@@ -12638,7 +12638,7 @@
         <v>1087544.64642732</v>
       </c>
       <c r="H471">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="472" spans="1:8">
@@ -12664,7 +12664,7 @@
         <v>1087544.64642732</v>
       </c>
       <c r="H472">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="473" spans="1:8">
@@ -12690,7 +12690,7 @@
         <v>1087547.64642732</v>
       </c>
       <c r="H473">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="474" spans="1:8">
@@ -12716,7 +12716,7 @@
         <v>1087530.84642732</v>
       </c>
       <c r="H474">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="475" spans="1:8">
@@ -12742,7 +12742,7 @@
         <v>1087542.34642732</v>
       </c>
       <c r="H475">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="476" spans="1:8">
@@ -12768,7 +12768,7 @@
         <v>1087542.34642732</v>
       </c>
       <c r="H476">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477" spans="1:8">
@@ -12794,7 +12794,7 @@
         <v>1087542.34642732</v>
       </c>
       <c r="H477">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478" spans="1:8">
@@ -12820,7 +12820,7 @@
         <v>1087542.34642732</v>
       </c>
       <c r="H478">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479" spans="1:8">
@@ -12846,7 +12846,7 @@
         <v>1087542.57102732</v>
       </c>
       <c r="H479">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480" spans="1:8">
@@ -12872,7 +12872,7 @@
         <v>1087517.37102732</v>
       </c>
       <c r="H480">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481" spans="1:8">
@@ -12898,7 +12898,7 @@
         <v>1087517.37102732</v>
       </c>
       <c r="H481">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482" spans="1:8">
@@ -12924,7 +12924,7 @@
         <v>1087517.37102732</v>
       </c>
       <c r="H482">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483" spans="1:8">
@@ -12950,7 +12950,7 @@
         <v>1087511.47102732</v>
       </c>
       <c r="H483">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484" spans="1:8">
@@ -12976,7 +12976,7 @@
         <v>1087511.47102732</v>
       </c>
       <c r="H484">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485" spans="1:8">
@@ -18930,7 +18930,7 @@
         <v>800245.3675265101</v>
       </c>
       <c r="H713">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714" spans="1:8">
@@ -18956,7 +18956,7 @@
         <v>801311.3675265101</v>
       </c>
       <c r="H714">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="715" spans="1:8">
@@ -18982,7 +18982,7 @@
         <v>802427.3675265101</v>
       </c>
       <c r="H715">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="716" spans="1:8">
@@ -19008,7 +19008,7 @@
         <v>803223.3675265101</v>
       </c>
       <c r="H716">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="717" spans="1:8">
@@ -19034,7 +19034,7 @@
         <v>803357.7879265101</v>
       </c>
       <c r="H717">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="718" spans="1:8">
@@ -19060,7 +19060,7 @@
         <v>803357.7879265101</v>
       </c>
       <c r="H718">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="719" spans="1:8">
@@ -19086,7 +19086,7 @@
         <v>804723.3879265101</v>
       </c>
       <c r="H719">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="720" spans="1:8">
@@ -19112,7 +19112,7 @@
         <v>805223.3879265101</v>
       </c>
       <c r="H720">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="721" spans="1:8">
@@ -19138,7 +19138,7 @@
         <v>805394.6905265101</v>
       </c>
       <c r="H721">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="722" spans="1:8">
@@ -19164,7 +19164,7 @@
         <v>805330.5905265101</v>
       </c>
       <c r="H722">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="723" spans="1:8">
@@ -19190,7 +19190,7 @@
         <v>805296.1905265101</v>
       </c>
       <c r="H723">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="724" spans="1:8">
@@ -19216,7 +19216,7 @@
         <v>805325.9905265102</v>
       </c>
       <c r="H724">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="725" spans="1:8">
@@ -19242,7 +19242,7 @@
         <v>805269.9039265101</v>
       </c>
       <c r="H725">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="726" spans="1:8">
@@ -19268,7 +19268,7 @@
         <v>805348.2173265101</v>
       </c>
       <c r="H726">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="727" spans="1:8">
@@ -19294,7 +19294,7 @@
         <v>805348.4970265101</v>
       </c>
       <c r="H727">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="728" spans="1:8">
@@ -19320,7 +19320,7 @@
         <v>805330.37842651</v>
       </c>
       <c r="H728">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="729" spans="1:8">
@@ -19346,7 +19346,7 @@
         <v>805930.37842651</v>
       </c>
       <c r="H729">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="730" spans="1:8">
@@ -19372,7 +19372,7 @@
         <v>805351.96492651</v>
       </c>
       <c r="H730">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="731" spans="1:8">
@@ -19398,7 +19398,7 @@
         <v>805381.76492651</v>
       </c>
       <c r="H731">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
